--- a/Project_2_Clark_Jennifer/major_constructs.xlsx
+++ b/Project_2_Clark_Jennifer/major_constructs.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcc\Desktop\jc1929709\Project_2_Clark_Jennifer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="19920" windowHeight="7755"/>
   </bookViews>
@@ -186,8 +191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -226,15 +231,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -283,46 +279,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -341,6 +297,96 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -354,7 +400,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,31 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -396,6 +442,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,9 +528,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,6 +563,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -683,36 +739,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -722,209 +778,209 @@
       <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32.25" customHeight="1">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
